--- a/hyumini/bus/commute_leave.xlsx
+++ b/hyumini/bus/commute_leave.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="915" yWindow="465" windowWidth="24675" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="17시40분" sheetId="1" r:id="rId1"/>
-    <sheet name="22시00분" sheetId="22" r:id="rId2"/>
+    <sheet name="17시 40분" sheetId="1" r:id="rId1"/>
+    <sheet name="22시 00분" sheetId="22" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
@@ -29,43 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
-  <si>
-    <t>부평,부천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화정,일산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화곡,광명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강남,사당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명일,잠실,성남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분당,수지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신촌,시흥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영등포,광명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠실,사당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
   <si>
     <t>소래고등학교</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +56,46 @@
   </si>
   <si>
     <t>부평역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부평, 부천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화정, 일산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화곡, 광명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남, 사당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명일, 잠실, 성남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분당, 수지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신촌, 시흥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소사역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영등포, 광명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠실, 사당</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +425,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F3:F6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -431,141 +435,141 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -580,54 +584,54 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/hyumini/bus/commute_leave.xlsx
+++ b/hyumini/bus/commute_leave.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\hyumini\bus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="915" yWindow="465" windowWidth="24675" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="915" yWindow="465" windowWidth="24675" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="17시 40분" sheetId="1" r:id="rId1"/>
     <sheet name="22시 00분" sheetId="22" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>소래고등학교</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,23 +79,259 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소사역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영등포, 광명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>잠실, 사당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화마을 삼거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주엽역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정발산역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마두역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백석역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이브존(화정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소하동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광명우체국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철산역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광명사거리역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진명학워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBK기업은행 개봉동지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개봉사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고척시장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사당역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내방역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방배역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서초역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교대역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신논현역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모란역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태평역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문정역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가락시장역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송파역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석촌역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠시역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상현프라자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상현마을 현대홈타운 공항버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍덕고교사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수지구청사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽전사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오래역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미금역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정자역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시흥사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구로디지털단지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보라매역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대방역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여의도역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광흥창역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서강대역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신촌역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명문고등학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광명사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개봉사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동양미래대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신도림역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영등포역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방배역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남부터미널역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한티역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신천역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠실역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -202,7 +430,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -237,7 +465,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -414,26 +642,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -456,120 +690,182 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -580,58 +876,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
